--- a/public/高中二班女子800米成绩统计.xlsx
+++ b/public/高中二班女子800米成绩统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowWidth="28000" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>高中二班女子800米成绩统计</t>
   </si>
@@ -34,6 +34,9 @@
     <t>800跑步</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>王慧娟</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>3分26秒</t>
   </si>
   <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>李雅男</t>
   </si>
   <si>
@@ -67,7 +73,43 @@
     <t>赵秀</t>
   </si>
   <si>
-    <t>3月36秒</t>
+    <t>3分36秒</t>
+  </si>
+  <si>
+    <t>赵飞</t>
+  </si>
+  <si>
+    <t>凑合</t>
+  </si>
+  <si>
+    <t>4分20秒</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>李林</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>4分25秒</t>
+  </si>
+  <si>
+    <t>张强</t>
+  </si>
+  <si>
+    <t>魁梧</t>
+  </si>
+  <si>
+    <t>3分50秒</t>
+  </si>
+  <si>
+    <t>吴风</t>
+  </si>
+  <si>
+    <t>4分01秒</t>
   </si>
 </sst>
 </file>
@@ -75,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,6 +138,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -103,33 +222,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,93 +252,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,49 +291,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,79 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,49 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,39 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +532,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -540,162 +553,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,26 +1056,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1052,10 +1091,13 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>162</v>
@@ -1064,15 +1106,18 @@
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>163</v>
@@ -1081,15 +1126,18 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>164</v>
@@ -1098,15 +1146,18 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>160</v>
@@ -1115,15 +1166,18 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>159</v>
@@ -1132,10 +1186,93 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>166</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>169</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/高中二班女子800米成绩统计.xlsx
+++ b/public/高中二班女子800米成绩统计.xlsx
@@ -138,14 +138,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -153,26 +191,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,39 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,17 +224,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,29 +277,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,73 +291,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,109 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,16 +485,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -515,17 +515,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +540,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,173 +582,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,10 +1260,10 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
